--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tnfsf12-Tnfrsf12a.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tnfsf12-Tnfrsf12a.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.83559218135238</v>
+        <v>5.526037</v>
       </c>
       <c r="H2">
-        <v>4.83559218135238</v>
+        <v>16.578111</v>
       </c>
       <c r="I2">
-        <v>0.2008799998195455</v>
+        <v>0.1907740523064932</v>
       </c>
       <c r="J2">
-        <v>0.2008799998195455</v>
+        <v>0.1907740523064932</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.83776046074164</v>
+        <v>11.05624166666666</v>
       </c>
       <c r="N2">
-        <v>8.83776046074164</v>
+        <v>33.16872499999999</v>
       </c>
       <c r="O2">
-        <v>0.2276895041980677</v>
+        <v>0.2506866656360179</v>
       </c>
       <c r="P2">
-        <v>0.2276895041980677</v>
+        <v>0.2506866656360179</v>
       </c>
       <c r="Q2">
-        <v>42.73580538462748</v>
+        <v>61.09720053094166</v>
       </c>
       <c r="R2">
-        <v>42.73580538462748</v>
+        <v>549.8748047784749</v>
       </c>
       <c r="S2">
-        <v>0.04573826756222023</v>
+        <v>0.04782451106258606</v>
       </c>
       <c r="T2">
-        <v>0.04573826756222023</v>
+        <v>0.04782451106258606</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.83559218135238</v>
+        <v>5.526037</v>
       </c>
       <c r="H3">
-        <v>4.83559218135238</v>
+        <v>16.578111</v>
       </c>
       <c r="I3">
-        <v>0.2008799998195455</v>
+        <v>0.1907740523064932</v>
       </c>
       <c r="J3">
-        <v>0.2008799998195455</v>
+        <v>0.1907740523064932</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.4422582268151</v>
+        <v>10.558644</v>
       </c>
       <c r="N3">
-        <v>10.4422582268151</v>
+        <v>31.675932</v>
       </c>
       <c r="O3">
-        <v>0.2690265943429069</v>
+        <v>0.2394042512635997</v>
       </c>
       <c r="P3">
-        <v>0.2690265943429069</v>
+        <v>0.2394042512635997</v>
       </c>
       <c r="Q3">
-        <v>50.49450223724967</v>
+        <v>58.34745741382799</v>
       </c>
       <c r="R3">
-        <v>50.49450223724967</v>
+        <v>525.127116724452</v>
       </c>
       <c r="S3">
-        <v>0.05404206222305608</v>
+        <v>0.04567211915295881</v>
       </c>
       <c r="T3">
-        <v>0.05404206222305608</v>
+        <v>0.04567211915295881</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.83559218135238</v>
+        <v>5.526037</v>
       </c>
       <c r="H4">
-        <v>4.83559218135238</v>
+        <v>16.578111</v>
       </c>
       <c r="I4">
-        <v>0.2008799998195455</v>
+        <v>0.1907740523064932</v>
       </c>
       <c r="J4">
-        <v>0.2008799998195455</v>
+        <v>0.1907740523064932</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.9291968171137</v>
+        <v>7.822425</v>
       </c>
       <c r="N4">
-        <v>6.9291968171137</v>
+        <v>23.467275</v>
       </c>
       <c r="O4">
-        <v>0.1785186863558701</v>
+        <v>0.1773638546948513</v>
       </c>
       <c r="P4">
-        <v>0.1785186863558701</v>
+        <v>0.1773638546948513</v>
       </c>
       <c r="Q4">
-        <v>33.50676995188681</v>
+        <v>43.227009979725</v>
       </c>
       <c r="R4">
-        <v>33.50676995188681</v>
+        <v>389.043089817525</v>
       </c>
       <c r="S4">
-        <v>0.03586083368295269</v>
+        <v>0.03383642129283684</v>
       </c>
       <c r="T4">
-        <v>0.03586083368295269</v>
+        <v>0.03383642129283684</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.83559218135238</v>
+        <v>5.526037</v>
       </c>
       <c r="H5">
-        <v>4.83559218135238</v>
+        <v>16.578111</v>
       </c>
       <c r="I5">
-        <v>0.2008799998195455</v>
+        <v>0.1907740523064932</v>
       </c>
       <c r="J5">
-        <v>0.2008799998195455</v>
+        <v>0.1907740523064932</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.6057509201923</v>
+        <v>14.66651766666667</v>
       </c>
       <c r="N5">
-        <v>12.6057509201923</v>
+        <v>43.999553</v>
       </c>
       <c r="O5">
-        <v>0.3247652151031553</v>
+        <v>0.3325452284055311</v>
       </c>
       <c r="P5">
-        <v>0.3247652151031553</v>
+        <v>0.3325452284055311</v>
       </c>
       <c r="Q5">
-        <v>60.95627058975746</v>
+        <v>81.04771928715365</v>
       </c>
       <c r="R5">
-        <v>60.95627058975746</v>
+        <v>729.429473584383</v>
       </c>
       <c r="S5">
-        <v>0.0652388363513165</v>
+        <v>0.06344100079811153</v>
       </c>
       <c r="T5">
-        <v>0.0652388363513165</v>
+        <v>0.06344100079811153</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.421736391249301</v>
+        <v>8.502533</v>
       </c>
       <c r="H6">
-        <v>8.421736391249301</v>
+        <v>25.507599</v>
       </c>
       <c r="I6">
-        <v>0.3498554760838582</v>
+        <v>0.2935309110814287</v>
       </c>
       <c r="J6">
-        <v>0.3498554760838582</v>
+        <v>0.2935309110814287</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.83776046074164</v>
+        <v>11.05624166666666</v>
       </c>
       <c r="N6">
-        <v>8.83776046074164</v>
+        <v>33.16872499999999</v>
       </c>
       <c r="O6">
-        <v>0.2276895041980677</v>
+        <v>0.2506866656360179</v>
       </c>
       <c r="P6">
-        <v>0.2276895041980677</v>
+        <v>0.2506866656360179</v>
       </c>
       <c r="Q6">
-        <v>74.42928888937206</v>
+        <v>94.00605962680831</v>
       </c>
       <c r="R6">
-        <v>74.42928888937206</v>
+        <v>846.0545366412748</v>
       </c>
       <c r="S6">
-        <v>0.07965841989051259</v>
+        <v>0.07358428536010582</v>
       </c>
       <c r="T6">
-        <v>0.07965841989051259</v>
+        <v>0.07358428536010582</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.421736391249301</v>
+        <v>8.502533</v>
       </c>
       <c r="H7">
-        <v>8.421736391249301</v>
+        <v>25.507599</v>
       </c>
       <c r="I7">
-        <v>0.3498554760838582</v>
+        <v>0.2935309110814287</v>
       </c>
       <c r="J7">
-        <v>0.3498554760838582</v>
+        <v>0.2935309110814287</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.4422582268151</v>
+        <v>10.558644</v>
       </c>
       <c r="N7">
-        <v>10.4422582268151</v>
+        <v>31.675932</v>
       </c>
       <c r="O7">
-        <v>0.2690265943429069</v>
+        <v>0.2394042512635997</v>
       </c>
       <c r="P7">
-        <v>0.2690265943429069</v>
+        <v>0.2394042512635997</v>
       </c>
       <c r="Q7">
-        <v>87.94194611559112</v>
+        <v>89.77521904525199</v>
       </c>
       <c r="R7">
-        <v>87.94194611559112</v>
+        <v>807.9769714072679</v>
       </c>
       <c r="S7">
-        <v>0.09412042724305669</v>
+        <v>0.07027254799017169</v>
       </c>
       <c r="T7">
-        <v>0.09412042724305669</v>
+        <v>0.07027254799017169</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.421736391249301</v>
+        <v>8.502533</v>
       </c>
       <c r="H8">
-        <v>8.421736391249301</v>
+        <v>25.507599</v>
       </c>
       <c r="I8">
-        <v>0.3498554760838582</v>
+        <v>0.2935309110814287</v>
       </c>
       <c r="J8">
-        <v>0.3498554760838582</v>
+        <v>0.2935309110814287</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.9291968171137</v>
+        <v>7.822425</v>
       </c>
       <c r="N8">
-        <v>6.9291968171137</v>
+        <v>23.467275</v>
       </c>
       <c r="O8">
-        <v>0.1785186863558701</v>
+        <v>0.1773638546948513</v>
       </c>
       <c r="P8">
-        <v>0.1785186863558701</v>
+        <v>0.1773638546948513</v>
       </c>
       <c r="Q8">
-        <v>58.35586899681527</v>
+        <v>66.510426702525</v>
       </c>
       <c r="R8">
-        <v>58.35586899681527</v>
+        <v>598.593840322725</v>
       </c>
       <c r="S8">
-        <v>0.0624557400048979</v>
+        <v>0.05206177386149385</v>
       </c>
       <c r="T8">
-        <v>0.0624557400048979</v>
+        <v>0.05206177386149385</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.421736391249301</v>
+        <v>8.502533</v>
       </c>
       <c r="H9">
-        <v>8.421736391249301</v>
+        <v>25.507599</v>
       </c>
       <c r="I9">
-        <v>0.3498554760838582</v>
+        <v>0.2935309110814287</v>
       </c>
       <c r="J9">
-        <v>0.3498554760838582</v>
+        <v>0.2935309110814287</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.6057509201923</v>
+        <v>14.66651766666667</v>
       </c>
       <c r="N9">
-        <v>12.6057509201923</v>
+        <v>43.999553</v>
       </c>
       <c r="O9">
-        <v>0.3247652151031553</v>
+        <v>0.3325452284055311</v>
       </c>
       <c r="P9">
-        <v>0.3247652151031553</v>
+        <v>0.3325452284055311</v>
       </c>
       <c r="Q9">
-        <v>106.1623112636078</v>
+        <v>124.7025504559163</v>
       </c>
       <c r="R9">
-        <v>106.1623112636078</v>
+        <v>1122.322954103247</v>
       </c>
       <c r="S9">
-        <v>0.113620888945391</v>
+        <v>0.09761230386965734</v>
       </c>
       <c r="T9">
-        <v>0.113620888945391</v>
+        <v>0.09761230386965734</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.10844065294785</v>
+        <v>10.61443666666667</v>
       </c>
       <c r="H10">
-        <v>9.10844065294785</v>
+        <v>31.84331</v>
       </c>
       <c r="I10">
-        <v>0.3783825202994658</v>
+        <v>0.3664396557335078</v>
       </c>
       <c r="J10">
-        <v>0.3783825202994658</v>
+        <v>0.3664396557335078</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.83776046074164</v>
+        <v>11.05624166666666</v>
       </c>
       <c r="N10">
-        <v>8.83776046074164</v>
+        <v>33.16872499999999</v>
       </c>
       <c r="O10">
-        <v>0.2276895041980677</v>
+        <v>0.2506866656360179</v>
       </c>
       <c r="P10">
-        <v>0.2276895041980677</v>
+        <v>0.2506866656360179</v>
       </c>
       <c r="Q10">
-        <v>80.49821666163427</v>
+        <v>117.3557769421944</v>
       </c>
       <c r="R10">
-        <v>80.49821666163427</v>
+        <v>1056.20199247975</v>
       </c>
       <c r="S10">
-        <v>0.08615372844420063</v>
+        <v>0.09186153545264339</v>
       </c>
       <c r="T10">
-        <v>0.08615372844420063</v>
+        <v>0.09186153545264339</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.10844065294785</v>
+        <v>10.61443666666667</v>
       </c>
       <c r="H11">
-        <v>9.10844065294785</v>
+        <v>31.84331</v>
       </c>
       <c r="I11">
-        <v>0.3783825202994658</v>
+        <v>0.3664396557335078</v>
       </c>
       <c r="J11">
-        <v>0.3783825202994658</v>
+        <v>0.3664396557335078</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.4422582268151</v>
+        <v>10.558644</v>
       </c>
       <c r="N11">
-        <v>10.4422582268151</v>
+        <v>31.675932</v>
       </c>
       <c r="O11">
-        <v>0.2690265943429069</v>
+        <v>0.2394042512635997</v>
       </c>
       <c r="P11">
-        <v>0.2690265943429069</v>
+        <v>0.2394042512635997</v>
       </c>
       <c r="Q11">
-        <v>95.1126893417018</v>
+        <v>112.07405802388</v>
       </c>
       <c r="R11">
-        <v>95.1126893417018</v>
+        <v>1008.66652221492</v>
       </c>
       <c r="S11">
-        <v>0.1017949607950511</v>
+        <v>0.08772721141417167</v>
       </c>
       <c r="T11">
-        <v>0.1017949607950511</v>
+        <v>0.08772721141417167</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.10844065294785</v>
+        <v>10.61443666666667</v>
       </c>
       <c r="H12">
-        <v>9.10844065294785</v>
+        <v>31.84331</v>
       </c>
       <c r="I12">
-        <v>0.3783825202994658</v>
+        <v>0.3664396557335078</v>
       </c>
       <c r="J12">
-        <v>0.3783825202994658</v>
+        <v>0.3664396557335078</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.9291968171137</v>
+        <v>7.822425</v>
       </c>
       <c r="N12">
-        <v>6.9291968171137</v>
+        <v>23.467275</v>
       </c>
       <c r="O12">
-        <v>0.1785186863558701</v>
+        <v>0.1773638546948513</v>
       </c>
       <c r="P12">
-        <v>0.1785186863558701</v>
+        <v>0.1773638546948513</v>
       </c>
       <c r="Q12">
-        <v>63.11417798127528</v>
+        <v>83.03063474225</v>
       </c>
       <c r="R12">
-        <v>63.11417798127528</v>
+        <v>747.27571268025</v>
       </c>
       <c r="S12">
-        <v>0.06754835046388399</v>
+        <v>0.06499314985394923</v>
       </c>
       <c r="T12">
-        <v>0.06754835046388399</v>
+        <v>0.06499314985394923</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.10844065294785</v>
+        <v>10.61443666666667</v>
       </c>
       <c r="H13">
-        <v>9.10844065294785</v>
+        <v>31.84331</v>
       </c>
       <c r="I13">
-        <v>0.3783825202994658</v>
+        <v>0.3664396557335078</v>
       </c>
       <c r="J13">
-        <v>0.3783825202994658</v>
+        <v>0.3664396557335078</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.6057509201923</v>
+        <v>14.66651766666667</v>
       </c>
       <c r="N13">
-        <v>12.6057509201923</v>
+        <v>43.999553</v>
       </c>
       <c r="O13">
-        <v>0.3247652151031553</v>
+        <v>0.3325452284055311</v>
       </c>
       <c r="P13">
-        <v>0.3247652151031553</v>
+        <v>0.3325452284055311</v>
       </c>
       <c r="Q13">
-        <v>114.8187341424143</v>
+        <v>155.6768228933811</v>
       </c>
       <c r="R13">
-        <v>114.8187341424143</v>
+        <v>1401.09140604043</v>
       </c>
       <c r="S13">
-        <v>0.12288548059633</v>
+        <v>0.1218577590127435</v>
       </c>
       <c r="T13">
-        <v>0.12288548059633</v>
+        <v>0.1218577590127435</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.70627470961718</v>
+        <v>4.323390666666667</v>
       </c>
       <c r="H14">
-        <v>1.70627470961718</v>
+        <v>12.970172</v>
       </c>
       <c r="I14">
-        <v>0.07088200379713054</v>
+        <v>0.1492553808785702</v>
       </c>
       <c r="J14">
-        <v>0.07088200379713054</v>
+        <v>0.1492553808785702</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.83776046074164</v>
+        <v>11.05624166666666</v>
       </c>
       <c r="N14">
-        <v>8.83776046074164</v>
+        <v>33.16872499999999</v>
       </c>
       <c r="O14">
-        <v>0.2276895041980677</v>
+        <v>0.2506866656360179</v>
       </c>
       <c r="P14">
-        <v>0.2276895041980677</v>
+        <v>0.2506866656360179</v>
       </c>
       <c r="Q14">
-        <v>15.07964716381814</v>
+        <v>47.80045203007778</v>
       </c>
       <c r="R14">
-        <v>15.07964716381814</v>
+        <v>430.2040682707</v>
       </c>
       <c r="S14">
-        <v>0.0161390883011342</v>
+        <v>0.03741633376068263</v>
       </c>
       <c r="T14">
-        <v>0.0161390883011342</v>
+        <v>0.03741633376068262</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.70627470961718</v>
+        <v>4.323390666666667</v>
       </c>
       <c r="H15">
-        <v>1.70627470961718</v>
+        <v>12.970172</v>
       </c>
       <c r="I15">
-        <v>0.07088200379713054</v>
+        <v>0.1492553808785702</v>
       </c>
       <c r="J15">
-        <v>0.07088200379713054</v>
+        <v>0.1492553808785702</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.4422582268151</v>
+        <v>10.558644</v>
       </c>
       <c r="N15">
-        <v>10.4422582268151</v>
+        <v>31.675932</v>
       </c>
       <c r="O15">
-        <v>0.2690265943429069</v>
+        <v>0.2394042512635997</v>
       </c>
       <c r="P15">
-        <v>0.2690265943429069</v>
+        <v>0.2394042512635997</v>
       </c>
       <c r="Q15">
-        <v>17.81736112370654</v>
+        <v>45.649142922256</v>
       </c>
       <c r="R15">
-        <v>17.81736112370654</v>
+        <v>410.8422863003041</v>
       </c>
       <c r="S15">
-        <v>0.01906914408174303</v>
+        <v>0.0357323727062975</v>
       </c>
       <c r="T15">
-        <v>0.01906914408174303</v>
+        <v>0.03573237270629749</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.70627470961718</v>
+        <v>4.323390666666667</v>
       </c>
       <c r="H16">
-        <v>1.70627470961718</v>
+        <v>12.970172</v>
       </c>
       <c r="I16">
-        <v>0.07088200379713054</v>
+        <v>0.1492553808785702</v>
       </c>
       <c r="J16">
-        <v>0.07088200379713054</v>
+        <v>0.1492553808785702</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.9291968171137</v>
+        <v>7.822425</v>
       </c>
       <c r="N16">
-        <v>6.9291968171137</v>
+        <v>23.467275</v>
       </c>
       <c r="O16">
-        <v>0.1785186863558701</v>
+        <v>0.1773638546948513</v>
       </c>
       <c r="P16">
-        <v>0.1785186863558701</v>
+        <v>0.1773638546948513</v>
       </c>
       <c r="Q16">
-        <v>11.82311328700097</v>
+        <v>33.8193992357</v>
       </c>
       <c r="R16">
-        <v>11.82311328700097</v>
+        <v>304.3745931213001</v>
       </c>
       <c r="S16">
-        <v>0.01265376220413554</v>
+        <v>0.02647250968657142</v>
       </c>
       <c r="T16">
-        <v>0.01265376220413554</v>
+        <v>0.02647250968657142</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.70627470961718</v>
+        <v>4.323390666666667</v>
       </c>
       <c r="H17">
-        <v>1.70627470961718</v>
+        <v>12.970172</v>
       </c>
       <c r="I17">
-        <v>0.07088200379713054</v>
+        <v>0.1492553808785702</v>
       </c>
       <c r="J17">
-        <v>0.07088200379713054</v>
+        <v>0.1492553808785702</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.6057509201923</v>
+        <v>14.66651766666667</v>
       </c>
       <c r="N17">
-        <v>12.6057509201923</v>
+        <v>43.999553</v>
       </c>
       <c r="O17">
-        <v>0.3247652151031553</v>
+        <v>0.3325452284055311</v>
       </c>
       <c r="P17">
-        <v>0.3247652151031553</v>
+        <v>0.3325452284055311</v>
       </c>
       <c r="Q17">
-        <v>21.50887399085762</v>
+        <v>63.40908559256845</v>
       </c>
       <c r="R17">
-        <v>21.50887399085762</v>
+        <v>570.6817703331161</v>
       </c>
       <c r="S17">
-        <v>0.02302000921011777</v>
+        <v>0.04963416472501868</v>
       </c>
       <c r="T17">
-        <v>0.02302000921011777</v>
+        <v>0.04963416472501866</v>
       </c>
     </row>
   </sheetData>
